--- a/เช็คชื่อ/[2021-07-14] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-14] เอกสารเช็คชื่อ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BE2D94-D1FE-460C-BCBB-8CC0BD92542E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC410024-60C1-4C59-8132-B339C0F5E232}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11370" yWindow="465" windowWidth="14400" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="33">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2911,12 +2911,14 @@
       <c r="A175" s="1">
         <v>44391</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="6">
         <v>0.8125</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
@@ -3055,6 +3057,143 @@
       <c r="C186" s="2"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="E188" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="E189" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>3</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="E190" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="E191" s="9"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="E192" s="9"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C193" s="10"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="E194" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>9</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="9"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>11</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9">
         <v>1</v>
       </c>
     </row>

--- a/เช็คชื่อ/[2021-07-14] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-14] เอกสารเช็คชื่อ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC410024-60C1-4C59-8132-B339C0F5E232}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF1DFAD-2452-46D6-B8BE-611702B48708}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11370" yWindow="465" windowWidth="14400" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="33">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G192" sqref="G192"/>
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3197,6 +3197,151 @@
         <v>1</v>
       </c>
     </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B199" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="E200" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="E201" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="E202" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="E203" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="E204" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>6</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="E206" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>8</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="10"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>9</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>10</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="10"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>11</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/เช็คชื่อ/[2021-07-14] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-14] เอกสารเช็คชื่อ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF1DFAD-2452-46D6-B8BE-611702B48708}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B2783A-23D0-48B0-92AE-692ACE1AAEC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="465" windowWidth="14400" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21225" yWindow="1485" windowWidth="14400" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="33">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3342,6 +3342,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E211" s="9"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="E212" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="E213" s="9"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="E214" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="E215" s="9"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="E216" s="9"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>6</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="E218" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>9</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>10</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>11</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
